--- a/test.xlsx
+++ b/test.xlsx
@@ -76,10 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018.12.05~2019.01.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>执行用例数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   <si>
     <t>风险：测试时存在部分环境配置导致的问题，如消费记录未展示；正式上线时需核对环境配置是否正确。
 测试总结：已完成测试，整体质量符合标准，上线风险为低。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.25~2019.01.10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,15 +426,6 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,39 +449,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -509,55 +524,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,7 +832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -843,7 +843,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -859,472 +859,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="46.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="9">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12">
+      <c r="D4" s="9">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="12">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="22" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="35.25">
+      <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" ht="35.25">
-      <c r="A31" s="30" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="42" customHeight="1">
+      <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" ht="42" customHeight="1">
-      <c r="A32" s="33" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="35.25">
+      <c r="A33" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-    </row>
-    <row r="33" spans="1:8" ht="35.25">
-      <c r="A33" s="36" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="A34:H36"/>
     <mergeCell ref="A9:B30"/>
     <mergeCell ref="C9:H10"/>
@@ -1336,16 +1341,11 @@
     <mergeCell ref="C21:H22"/>
     <mergeCell ref="C23:H24"/>
     <mergeCell ref="C25:H26"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A5:B8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
